--- a/data/additional data/dimensional fragility.xlsx
+++ b/data/additional data/dimensional fragility.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Schianolomoriello_R\oecd-sfr-2018\data\additional data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385"/>
   </bookViews>
@@ -147,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,7 +500,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,10 +883,10 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -892,10 +897,10 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
